--- a/doc/test/単体テスト仕様書.xlsx
+++ b/doc/test/単体テスト仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">起動テスト!$A$1:$AO$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">設定画面項目確認テスト!$A$1:$AQ$280</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">設定画面項目確認テスト!$A$1:$AQ$281</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="470">
   <si>
     <t>単体テスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -1343,10 +1343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「打刻誤り</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「私用・自己啓発等」と表示</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
@@ -2106,9 +2102,6 @@
     <t>241</t>
   </si>
   <si>
-    <t>242</t>
-  </si>
-  <si>
     <t>「設定をリセットしました。」という通知が表示される。</t>
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
@@ -2167,10 +2160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>243</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スイッチの表示が有効化状態に切り替わり、</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
@@ -2190,10 +2179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>244</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全てのフォームタグ要素が有効化状態に切り替わる</t>
     <rPh sb="0" eb="1">
       <t>スベ</t>
@@ -2301,6 +2286,46 @@
     <rPh sb="40" eb="42">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「打刻誤り」と表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのフォームに入力されていた値がクリアされる</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>242</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>243</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>244</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>245</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3815,13 +3840,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>41732</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>46755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>108407</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>218205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3870,7 +3895,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>51780</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>35550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="171450"/>
@@ -4184,7 +4209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4198,7 +4223,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4345,7 +4370,7 @@
     </row>
     <row r="2" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4456,7 +4481,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
@@ -4550,7 +4575,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -4660,9 +4685,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP279"/>
+  <dimension ref="A1:AP280"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4673,12 +4698,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4797,7 +4822,7 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="12"/>
       <c r="AG34" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
@@ -4851,7 +4876,7 @@
       <c r="AE35" s="11"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
@@ -4904,7 +4929,7 @@
       <c r="AE36" s="17"/>
       <c r="AF36" s="18"/>
       <c r="AG36" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
@@ -4957,13 +4982,13 @@
       <c r="AE37" s="13"/>
       <c r="AF37" s="15"/>
       <c r="AG37" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="15"/>
       <c r="AK37" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AL37" s="13"/>
       <c r="AM37" s="13"/>
@@ -5012,7 +5037,7 @@
       <c r="AE38" s="17"/>
       <c r="AF38" s="18"/>
       <c r="AG38" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH38" s="17"/>
       <c r="AI38" s="17"/>
@@ -5065,7 +5090,7 @@
       <c r="AE39" s="17"/>
       <c r="AF39" s="18"/>
       <c r="AG39" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
@@ -5118,7 +5143,7 @@
       <c r="AE40" s="17"/>
       <c r="AF40" s="18"/>
       <c r="AG40" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH40" s="17"/>
       <c r="AI40" s="17"/>
@@ -5171,7 +5196,7 @@
       <c r="AE41" s="17"/>
       <c r="AF41" s="18"/>
       <c r="AG41" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
@@ -5224,13 +5249,13 @@
       <c r="AE42" s="17"/>
       <c r="AF42" s="18"/>
       <c r="AG42" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH42" s="17"/>
       <c r="AI42" s="17"/>
       <c r="AJ42" s="18"/>
       <c r="AK42" s="16" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AL42" s="17"/>
       <c r="AM42" s="17"/>
@@ -5279,7 +5304,7 @@
       <c r="AE43" s="17"/>
       <c r="AF43" s="18"/>
       <c r="AG43" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH43" s="17"/>
       <c r="AI43" s="17"/>
@@ -5332,7 +5357,7 @@
       <c r="AE44" s="17"/>
       <c r="AF44" s="18"/>
       <c r="AG44" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH44" s="17"/>
       <c r="AI44" s="17"/>
@@ -5385,7 +5410,7 @@
       <c r="AE45" s="17"/>
       <c r="AF45" s="18"/>
       <c r="AG45" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH45" s="17"/>
       <c r="AI45" s="17"/>
@@ -5438,7 +5463,7 @@
       <c r="AE46" s="17"/>
       <c r="AF46" s="18"/>
       <c r="AG46" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH46" s="17"/>
       <c r="AI46" s="17"/>
@@ -5491,7 +5516,7 @@
       <c r="AE47" s="17"/>
       <c r="AF47" s="18"/>
       <c r="AG47" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH47" s="17"/>
       <c r="AI47" s="17"/>
@@ -5544,7 +5569,7 @@
       <c r="AE48" s="13"/>
       <c r="AF48" s="15"/>
       <c r="AG48" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
@@ -5593,7 +5618,7 @@
       <c r="AE49" s="17"/>
       <c r="AF49" s="18"/>
       <c r="AG49" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH49" s="17"/>
       <c r="AI49" s="17"/>
@@ -5646,7 +5671,7 @@
       <c r="AE50" s="13"/>
       <c r="AF50" s="15"/>
       <c r="AG50" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
@@ -5695,7 +5720,7 @@
       <c r="AE51" s="17"/>
       <c r="AF51" s="18"/>
       <c r="AG51" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH51" s="17"/>
       <c r="AI51" s="17"/>
@@ -5748,7 +5773,7 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="18"/>
       <c r="AG52" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH52" s="17"/>
       <c r="AI52" s="17"/>
@@ -5801,7 +5826,7 @@
       <c r="AE53" s="17"/>
       <c r="AF53" s="18"/>
       <c r="AG53" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH53" s="17"/>
       <c r="AI53" s="17"/>
@@ -5852,7 +5877,7 @@
       <c r="AE54" s="17"/>
       <c r="AF54" s="18"/>
       <c r="AG54" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
@@ -5901,7 +5926,7 @@
       <c r="AE55" s="7"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH55" s="17"/>
       <c r="AI55" s="17"/>
@@ -5950,7 +5975,7 @@
       <c r="AE56" s="17"/>
       <c r="AF56" s="18"/>
       <c r="AG56" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
@@ -5999,7 +6024,7 @@
       <c r="AE57" s="7"/>
       <c r="AF57" s="9"/>
       <c r="AG57" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH57" s="17"/>
       <c r="AI57" s="17"/>
@@ -6048,7 +6073,7 @@
       <c r="AE58" s="17"/>
       <c r="AF58" s="18"/>
       <c r="AG58" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH58" s="17"/>
       <c r="AI58" s="17"/>
@@ -6101,7 +6126,7 @@
       <c r="AE59" s="7"/>
       <c r="AF59" s="9"/>
       <c r="AG59" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH59" s="7"/>
       <c r="AI59" s="7"/>
@@ -6152,7 +6177,7 @@
       <c r="AE60" s="13"/>
       <c r="AF60" s="15"/>
       <c r="AG60" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
@@ -6201,7 +6226,7 @@
       <c r="AE61" s="17"/>
       <c r="AF61" s="18"/>
       <c r="AG61" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH61" s="17"/>
       <c r="AI61" s="17"/>
@@ -6250,7 +6275,7 @@
       <c r="AE62" s="11"/>
       <c r="AF62" s="12"/>
       <c r="AG62" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH62" s="11"/>
       <c r="AI62" s="11"/>
@@ -6303,7 +6328,7 @@
       <c r="AE63" s="17"/>
       <c r="AF63" s="18"/>
       <c r="AG63" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH63" s="17"/>
       <c r="AI63" s="17"/>
@@ -6317,7 +6342,7 @@
     </row>
     <row r="64" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="8"/>
@@ -6354,7 +6379,7 @@
       <c r="AE64" s="7"/>
       <c r="AF64" s="9"/>
       <c r="AG64" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH64" s="7"/>
       <c r="AI64" s="7"/>
@@ -6368,7 +6393,7 @@
     </row>
     <row r="65" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="8"/>
@@ -6405,7 +6430,7 @@
       <c r="AE65" s="17"/>
       <c r="AF65" s="18"/>
       <c r="AG65" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH65" s="17"/>
       <c r="AI65" s="17"/>
@@ -6419,7 +6444,7 @@
     </row>
     <row r="66" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="8"/>
@@ -6456,7 +6481,7 @@
       <c r="AE66" s="7"/>
       <c r="AF66" s="9"/>
       <c r="AG66" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
@@ -6470,7 +6495,7 @@
     </row>
     <row r="67" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="8"/>
@@ -6507,7 +6532,7 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="18"/>
       <c r="AG67" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH67" s="17"/>
       <c r="AI67" s="17"/>
@@ -6521,7 +6546,7 @@
     </row>
     <row r="68" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="8"/>
@@ -6558,7 +6583,7 @@
       <c r="AE68" s="17"/>
       <c r="AF68" s="18"/>
       <c r="AG68" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH68" s="17"/>
       <c r="AI68" s="17"/>
@@ -6572,7 +6597,7 @@
     </row>
     <row r="69" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="8"/>
@@ -6609,7 +6634,7 @@
       <c r="AE69" s="7"/>
       <c r="AF69" s="9"/>
       <c r="AG69" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH69" s="7"/>
       <c r="AI69" s="7"/>
@@ -6623,7 +6648,7 @@
     </row>
     <row r="70" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="8"/>
@@ -6660,7 +6685,7 @@
       <c r="AE70" s="17"/>
       <c r="AF70" s="18"/>
       <c r="AG70" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH70" s="17"/>
       <c r="AI70" s="17"/>
@@ -6674,7 +6699,7 @@
     </row>
     <row r="71" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="8"/>
@@ -6711,7 +6736,7 @@
       <c r="AE71" s="17"/>
       <c r="AF71" s="18"/>
       <c r="AG71" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH71" s="17"/>
       <c r="AI71" s="17"/>
@@ -6725,7 +6750,7 @@
     </row>
     <row r="72" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="8"/>
@@ -6762,7 +6787,7 @@
       <c r="AE72" s="7"/>
       <c r="AF72" s="9"/>
       <c r="AG72" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH72" s="7"/>
       <c r="AI72" s="7"/>
@@ -6776,7 +6801,7 @@
     </row>
     <row r="73" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="8"/>
@@ -6813,7 +6838,7 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="18"/>
       <c r="AG73" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH73" s="17"/>
       <c r="AI73" s="17"/>
@@ -6827,7 +6852,7 @@
     </row>
     <row r="74" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="8"/>
@@ -6864,7 +6889,7 @@
       <c r="AE74" s="7"/>
       <c r="AF74" s="9"/>
       <c r="AG74" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH74" s="7"/>
       <c r="AI74" s="7"/>
@@ -6878,7 +6903,7 @@
     </row>
     <row r="75" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="8"/>
@@ -6915,7 +6940,7 @@
       <c r="AE75" s="17"/>
       <c r="AF75" s="18"/>
       <c r="AG75" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH75" s="17"/>
       <c r="AI75" s="17"/>
@@ -6929,7 +6954,7 @@
     </row>
     <row r="76" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="8"/>
@@ -6966,7 +6991,7 @@
       <c r="AE76" s="7"/>
       <c r="AF76" s="9"/>
       <c r="AG76" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH76" s="7"/>
       <c r="AI76" s="7"/>
@@ -6980,7 +7005,7 @@
     </row>
     <row r="77" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="8"/>
@@ -7017,7 +7042,7 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="18"/>
       <c r="AG77" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH77" s="17"/>
       <c r="AI77" s="17"/>
@@ -7031,7 +7056,7 @@
     </row>
     <row r="78" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="8"/>
@@ -7068,7 +7093,7 @@
       <c r="AE78" s="11"/>
       <c r="AF78" s="12"/>
       <c r="AG78" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH78" s="11"/>
       <c r="AI78" s="11"/>
@@ -7082,7 +7107,7 @@
     </row>
     <row r="79" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="14" t="s">
@@ -7121,7 +7146,7 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="18"/>
       <c r="AG79" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH79" s="17"/>
       <c r="AI79" s="17"/>
@@ -7135,7 +7160,7 @@
     </row>
     <row r="80" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="8"/>
@@ -7172,7 +7197,7 @@
       <c r="AE80" s="7"/>
       <c r="AF80" s="9"/>
       <c r="AG80" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH80" s="7"/>
       <c r="AI80" s="7"/>
@@ -7186,7 +7211,7 @@
     </row>
     <row r="81" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="8"/>
@@ -7223,7 +7248,7 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="18"/>
       <c r="AG81" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH81" s="17"/>
       <c r="AI81" s="17"/>
@@ -7237,7 +7262,7 @@
     </row>
     <row r="82" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="8"/>
@@ -7274,7 +7299,7 @@
       <c r="AE82" s="7"/>
       <c r="AF82" s="9"/>
       <c r="AG82" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH82" s="7"/>
       <c r="AI82" s="7"/>
@@ -7288,7 +7313,7 @@
     </row>
     <row r="83" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="8"/>
@@ -7325,7 +7350,7 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="18"/>
       <c r="AG83" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH83" s="17"/>
       <c r="AI83" s="17"/>
@@ -7339,7 +7364,7 @@
     </row>
     <row r="84" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="8"/>
@@ -7376,7 +7401,7 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="18"/>
       <c r="AG84" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH84" s="17"/>
       <c r="AI84" s="17"/>
@@ -7390,7 +7415,7 @@
     </row>
     <row r="85" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="8"/>
@@ -7427,7 +7452,7 @@
       <c r="AE85" s="7"/>
       <c r="AF85" s="9"/>
       <c r="AG85" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH85" s="7"/>
       <c r="AI85" s="7"/>
@@ -7441,7 +7466,7 @@
     </row>
     <row r="86" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="8"/>
@@ -7478,7 +7503,7 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="18"/>
       <c r="AG86" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH86" s="17"/>
       <c r="AI86" s="17"/>
@@ -7492,7 +7517,7 @@
     </row>
     <row r="87" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="8"/>
@@ -7529,7 +7554,7 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="18"/>
       <c r="AG87" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH87" s="17"/>
       <c r="AI87" s="17"/>
@@ -7543,7 +7568,7 @@
     </row>
     <row r="88" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="8"/>
@@ -7580,7 +7605,7 @@
       <c r="AE88" s="7"/>
       <c r="AF88" s="9"/>
       <c r="AG88" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH88" s="7"/>
       <c r="AI88" s="7"/>
@@ -7594,7 +7619,7 @@
     </row>
     <row r="89" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="8"/>
@@ -7631,7 +7656,7 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="18"/>
       <c r="AG89" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH89" s="17"/>
       <c r="AI89" s="17"/>
@@ -7645,7 +7670,7 @@
     </row>
     <row r="90" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="8"/>
@@ -7682,7 +7707,7 @@
       <c r="AE90" s="7"/>
       <c r="AF90" s="9"/>
       <c r="AG90" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH90" s="7"/>
       <c r="AI90" s="7"/>
@@ -7696,7 +7721,7 @@
     </row>
     <row r="91" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="8"/>
@@ -7733,7 +7758,7 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="18"/>
       <c r="AG91" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH91" s="17"/>
       <c r="AI91" s="17"/>
@@ -7747,7 +7772,7 @@
     </row>
     <row r="92" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="8"/>
@@ -7784,7 +7809,7 @@
       <c r="AE92" s="7"/>
       <c r="AF92" s="9"/>
       <c r="AG92" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH92" s="7"/>
       <c r="AI92" s="7"/>
@@ -7798,7 +7823,7 @@
     </row>
     <row r="93" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="8"/>
@@ -7835,7 +7860,7 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="18"/>
       <c r="AG93" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH93" s="17"/>
       <c r="AI93" s="17"/>
@@ -7849,7 +7874,7 @@
     </row>
     <row r="94" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="10"/>
@@ -7886,7 +7911,7 @@
       <c r="AE94" s="11"/>
       <c r="AF94" s="12"/>
       <c r="AG94" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH94" s="11"/>
       <c r="AI94" s="11"/>
@@ -7900,7 +7925,7 @@
     </row>
     <row r="95" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="14" t="s">
@@ -7939,7 +7964,7 @@
       <c r="AE95" s="13"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH95" s="13"/>
       <c r="AI95" s="13"/>
@@ -7953,7 +7978,7 @@
     </row>
     <row r="96" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="8"/>
@@ -7990,7 +8015,7 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="18"/>
       <c r="AG96" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH96" s="17"/>
       <c r="AI96" s="17"/>
@@ -8004,7 +8029,7 @@
     </row>
     <row r="97" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="10"/>
@@ -8041,7 +8066,7 @@
       <c r="AE97" s="11"/>
       <c r="AF97" s="12"/>
       <c r="AG97" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH97" s="11"/>
       <c r="AI97" s="11"/>
@@ -8055,7 +8080,7 @@
     </row>
     <row r="98" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="14" t="s">
@@ -8094,7 +8119,7 @@
       <c r="AE98" s="7"/>
       <c r="AF98" s="9"/>
       <c r="AG98" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH98" s="7"/>
       <c r="AI98" s="7"/>
@@ -8108,7 +8133,7 @@
     </row>
     <row r="99" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="8"/>
@@ -8145,7 +8170,7 @@
       <c r="AE99" s="13"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH99" s="13"/>
       <c r="AI99" s="13"/>
@@ -8159,7 +8184,7 @@
     </row>
     <row r="100" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="8"/>
@@ -8194,7 +8219,7 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="18"/>
       <c r="AG100" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH100" s="17"/>
       <c r="AI100" s="17"/>
@@ -8208,7 +8233,7 @@
     </row>
     <row r="101" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="10"/>
@@ -8243,7 +8268,7 @@
       <c r="AE101" s="11"/>
       <c r="AF101" s="12"/>
       <c r="AG101" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH101" s="11"/>
       <c r="AI101" s="11"/>
@@ -8257,7 +8282,7 @@
     </row>
     <row r="102" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="14" t="s">
@@ -8296,7 +8321,7 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="18"/>
       <c r="AG102" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH102" s="17"/>
       <c r="AI102" s="17"/>
@@ -8310,7 +8335,7 @@
     </row>
     <row r="103" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="8"/>
@@ -8347,7 +8372,7 @@
       <c r="AE103" s="7"/>
       <c r="AF103" s="9"/>
       <c r="AG103" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH103" s="7"/>
       <c r="AI103" s="7"/>
@@ -8361,7 +8386,7 @@
     </row>
     <row r="104" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="8"/>
@@ -8398,7 +8423,7 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="18"/>
       <c r="AG104" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH104" s="17"/>
       <c r="AI104" s="17"/>
@@ -8412,7 +8437,7 @@
     </row>
     <row r="105" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="8"/>
@@ -8449,7 +8474,7 @@
       <c r="AE105" s="7"/>
       <c r="AF105" s="9"/>
       <c r="AG105" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH105" s="7"/>
       <c r="AI105" s="7"/>
@@ -8463,7 +8488,7 @@
     </row>
     <row r="106" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="8"/>
@@ -8500,7 +8525,7 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="18"/>
       <c r="AG106" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH106" s="17"/>
       <c r="AI106" s="17"/>
@@ -8514,7 +8539,7 @@
     </row>
     <row r="107" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="8"/>
@@ -8551,7 +8576,7 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="18"/>
       <c r="AG107" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH107" s="17"/>
       <c r="AI107" s="17"/>
@@ -8565,7 +8590,7 @@
     </row>
     <row r="108" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="8"/>
@@ -8602,7 +8627,7 @@
       <c r="AE108" s="7"/>
       <c r="AF108" s="9"/>
       <c r="AG108" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH108" s="7"/>
       <c r="AI108" s="7"/>
@@ -8616,7 +8641,7 @@
     </row>
     <row r="109" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="8"/>
@@ -8653,7 +8678,7 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="18"/>
       <c r="AG109" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH109" s="17"/>
       <c r="AI109" s="17"/>
@@ -8667,7 +8692,7 @@
     </row>
     <row r="110" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="8"/>
@@ -8704,7 +8729,7 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="18"/>
       <c r="AG110" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH110" s="17"/>
       <c r="AI110" s="17"/>
@@ -8718,7 +8743,7 @@
     </row>
     <row r="111" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C111" s="18"/>
       <c r="D111" s="8"/>
@@ -8755,7 +8780,7 @@
       <c r="AE111" s="7"/>
       <c r="AF111" s="9"/>
       <c r="AG111" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH111" s="7"/>
       <c r="AI111" s="7"/>
@@ -8769,7 +8794,7 @@
     </row>
     <row r="112" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="8"/>
@@ -8806,7 +8831,7 @@
       <c r="AE112" s="17"/>
       <c r="AF112" s="18"/>
       <c r="AG112" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH112" s="17"/>
       <c r="AI112" s="17"/>
@@ -8820,7 +8845,7 @@
     </row>
     <row r="113" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="8"/>
@@ -8857,7 +8882,7 @@
       <c r="AE113" s="7"/>
       <c r="AF113" s="9"/>
       <c r="AG113" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH113" s="7"/>
       <c r="AI113" s="7"/>
@@ -8871,7 +8896,7 @@
     </row>
     <row r="114" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="8"/>
@@ -8908,7 +8933,7 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="18"/>
       <c r="AG114" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH114" s="17"/>
       <c r="AI114" s="17"/>
@@ -8922,7 +8947,7 @@
     </row>
     <row r="115" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="8"/>
@@ -8959,7 +8984,7 @@
       <c r="AE115" s="7"/>
       <c r="AF115" s="9"/>
       <c r="AG115" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH115" s="7"/>
       <c r="AI115" s="7"/>
@@ -8973,7 +8998,7 @@
     </row>
     <row r="116" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="8"/>
@@ -9010,7 +9035,7 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="18"/>
       <c r="AG116" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH116" s="17"/>
       <c r="AI116" s="17"/>
@@ -9024,7 +9049,7 @@
     </row>
     <row r="117" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="10"/>
@@ -9061,7 +9086,7 @@
       <c r="AE117" s="11"/>
       <c r="AF117" s="12"/>
       <c r="AG117" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH117" s="11"/>
       <c r="AI117" s="11"/>
@@ -9075,7 +9100,7 @@
     </row>
     <row r="118" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="14" t="s">
@@ -9114,7 +9139,7 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="18"/>
       <c r="AG118" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH118" s="17"/>
       <c r="AI118" s="17"/>
@@ -9128,7 +9153,7 @@
     </row>
     <row r="119" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="8"/>
@@ -9165,7 +9190,7 @@
       <c r="AE119" s="7"/>
       <c r="AF119" s="9"/>
       <c r="AG119" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH119" s="7"/>
       <c r="AI119" s="7"/>
@@ -9179,7 +9204,7 @@
     </row>
     <row r="120" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="8"/>
@@ -9216,7 +9241,7 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="18"/>
       <c r="AG120" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH120" s="17"/>
       <c r="AI120" s="17"/>
@@ -9230,7 +9255,7 @@
     </row>
     <row r="121" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="8"/>
@@ -9267,7 +9292,7 @@
       <c r="AE121" s="7"/>
       <c r="AF121" s="9"/>
       <c r="AG121" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH121" s="7"/>
       <c r="AI121" s="7"/>
@@ -9281,7 +9306,7 @@
     </row>
     <row r="122" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="8"/>
@@ -9318,7 +9343,7 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="18"/>
       <c r="AG122" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH122" s="17"/>
       <c r="AI122" s="17"/>
@@ -9332,7 +9357,7 @@
     </row>
     <row r="123" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="8"/>
@@ -9369,7 +9394,7 @@
       <c r="AE123" s="17"/>
       <c r="AF123" s="18"/>
       <c r="AG123" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH123" s="17"/>
       <c r="AI123" s="17"/>
@@ -9383,7 +9408,7 @@
     </row>
     <row r="124" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="8"/>
@@ -9420,7 +9445,7 @@
       <c r="AE124" s="7"/>
       <c r="AF124" s="9"/>
       <c r="AG124" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH124" s="7"/>
       <c r="AI124" s="7"/>
@@ -9434,7 +9459,7 @@
     </row>
     <row r="125" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="8"/>
@@ -9471,7 +9496,7 @@
       <c r="AE125" s="17"/>
       <c r="AF125" s="18"/>
       <c r="AG125" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH125" s="17"/>
       <c r="AI125" s="17"/>
@@ -9485,7 +9510,7 @@
     </row>
     <row r="126" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="8"/>
@@ -9522,7 +9547,7 @@
       <c r="AE126" s="17"/>
       <c r="AF126" s="18"/>
       <c r="AG126" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH126" s="17"/>
       <c r="AI126" s="17"/>
@@ -9536,7 +9561,7 @@
     </row>
     <row r="127" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="8"/>
@@ -9573,7 +9598,7 @@
       <c r="AE127" s="7"/>
       <c r="AF127" s="9"/>
       <c r="AG127" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH127" s="7"/>
       <c r="AI127" s="7"/>
@@ -9587,7 +9612,7 @@
     </row>
     <row r="128" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="8"/>
@@ -9624,7 +9649,7 @@
       <c r="AE128" s="17"/>
       <c r="AF128" s="18"/>
       <c r="AG128" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH128" s="17"/>
       <c r="AI128" s="17"/>
@@ -9638,7 +9663,7 @@
     </row>
     <row r="129" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="8"/>
@@ -9675,7 +9700,7 @@
       <c r="AE129" s="7"/>
       <c r="AF129" s="9"/>
       <c r="AG129" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH129" s="7"/>
       <c r="AI129" s="7"/>
@@ -9689,7 +9714,7 @@
     </row>
     <row r="130" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="8"/>
@@ -9726,7 +9751,7 @@
       <c r="AE130" s="17"/>
       <c r="AF130" s="18"/>
       <c r="AG130" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH130" s="17"/>
       <c r="AI130" s="17"/>
@@ -9740,7 +9765,7 @@
     </row>
     <row r="131" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8"/>
@@ -9777,7 +9802,7 @@
       <c r="AE131" s="7"/>
       <c r="AF131" s="9"/>
       <c r="AG131" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH131" s="7"/>
       <c r="AI131" s="7"/>
@@ -9791,7 +9816,7 @@
     </row>
     <row r="132" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="8"/>
@@ -9828,7 +9853,7 @@
       <c r="AE132" s="17"/>
       <c r="AF132" s="18"/>
       <c r="AG132" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH132" s="17"/>
       <c r="AI132" s="17"/>
@@ -9842,7 +9867,7 @@
     </row>
     <row r="133" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="10"/>
@@ -9879,7 +9904,7 @@
       <c r="AE133" s="11"/>
       <c r="AF133" s="12"/>
       <c r="AG133" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH133" s="11"/>
       <c r="AI133" s="11"/>
@@ -9893,7 +9918,7 @@
     </row>
     <row r="134" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="8" t="s">
@@ -9932,7 +9957,7 @@
       <c r="AE134" s="17"/>
       <c r="AF134" s="18"/>
       <c r="AG134" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH134" s="17"/>
       <c r="AI134" s="17"/>
@@ -9946,7 +9971,7 @@
     </row>
     <row r="135" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="8"/>
@@ -9983,7 +10008,7 @@
       <c r="AE135" s="7"/>
       <c r="AF135" s="9"/>
       <c r="AG135" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH135" s="7"/>
       <c r="AI135" s="7"/>
@@ -9997,7 +10022,7 @@
     </row>
     <row r="136" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="8"/>
@@ -10034,7 +10059,7 @@
       <c r="AE136" s="17"/>
       <c r="AF136" s="18"/>
       <c r="AG136" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH136" s="17"/>
       <c r="AI136" s="17"/>
@@ -10048,7 +10073,7 @@
     </row>
     <row r="137" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="8"/>
@@ -10085,7 +10110,7 @@
       <c r="AE137" s="7"/>
       <c r="AF137" s="9"/>
       <c r="AG137" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH137" s="7"/>
       <c r="AI137" s="7"/>
@@ -10099,7 +10124,7 @@
     </row>
     <row r="138" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C138" s="18"/>
       <c r="D138" s="8"/>
@@ -10136,7 +10161,7 @@
       <c r="AE138" s="17"/>
       <c r="AF138" s="18"/>
       <c r="AG138" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH138" s="17"/>
       <c r="AI138" s="17"/>
@@ -10150,7 +10175,7 @@
     </row>
     <row r="139" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="8"/>
@@ -10187,7 +10212,7 @@
       <c r="AE139" s="17"/>
       <c r="AF139" s="18"/>
       <c r="AG139" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH139" s="17"/>
       <c r="AI139" s="17"/>
@@ -10201,7 +10226,7 @@
     </row>
     <row r="140" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="8"/>
@@ -10238,7 +10263,7 @@
       <c r="AE140" s="7"/>
       <c r="AF140" s="9"/>
       <c r="AG140" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH140" s="7"/>
       <c r="AI140" s="7"/>
@@ -10252,7 +10277,7 @@
     </row>
     <row r="141" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="8"/>
@@ -10289,7 +10314,7 @@
       <c r="AE141" s="17"/>
       <c r="AF141" s="18"/>
       <c r="AG141" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH141" s="17"/>
       <c r="AI141" s="17"/>
@@ -10303,7 +10328,7 @@
     </row>
     <row r="142" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="8"/>
@@ -10340,7 +10365,7 @@
       <c r="AE142" s="17"/>
       <c r="AF142" s="18"/>
       <c r="AG142" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH142" s="17"/>
       <c r="AI142" s="17"/>
@@ -10354,7 +10379,7 @@
     </row>
     <row r="143" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="8"/>
@@ -10391,7 +10416,7 @@
       <c r="AE143" s="7"/>
       <c r="AF143" s="9"/>
       <c r="AG143" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH143" s="7"/>
       <c r="AI143" s="7"/>
@@ -10405,7 +10430,7 @@
     </row>
     <row r="144" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="8"/>
@@ -10442,7 +10467,7 @@
       <c r="AE144" s="17"/>
       <c r="AF144" s="18"/>
       <c r="AG144" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH144" s="17"/>
       <c r="AI144" s="17"/>
@@ -10456,7 +10481,7 @@
     </row>
     <row r="145" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="8"/>
@@ -10493,7 +10518,7 @@
       <c r="AE145" s="7"/>
       <c r="AF145" s="9"/>
       <c r="AG145" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH145" s="7"/>
       <c r="AI145" s="7"/>
@@ -10507,7 +10532,7 @@
     </row>
     <row r="146" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="8"/>
@@ -10544,7 +10569,7 @@
       <c r="AE146" s="17"/>
       <c r="AF146" s="18"/>
       <c r="AG146" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH146" s="17"/>
       <c r="AI146" s="17"/>
@@ -10558,7 +10583,7 @@
     </row>
     <row r="147" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="8"/>
@@ -10595,7 +10620,7 @@
       <c r="AE147" s="7"/>
       <c r="AF147" s="9"/>
       <c r="AG147" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH147" s="7"/>
       <c r="AI147" s="7"/>
@@ -10609,7 +10634,7 @@
     </row>
     <row r="148" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="8"/>
@@ -10646,7 +10671,7 @@
       <c r="AE148" s="17"/>
       <c r="AF148" s="18"/>
       <c r="AG148" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH148" s="17"/>
       <c r="AI148" s="17"/>
@@ -10660,7 +10685,7 @@
     </row>
     <row r="149" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="10"/>
@@ -10697,7 +10722,7 @@
       <c r="AE149" s="11"/>
       <c r="AF149" s="12"/>
       <c r="AG149" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH149" s="11"/>
       <c r="AI149" s="11"/>
@@ -10711,7 +10736,7 @@
     </row>
     <row r="150" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="8" t="s">
@@ -10750,7 +10775,7 @@
       <c r="AE150" s="17"/>
       <c r="AF150" s="18"/>
       <c r="AG150" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH150" s="17"/>
       <c r="AI150" s="17"/>
@@ -10764,7 +10789,7 @@
     </row>
     <row r="151" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="8"/>
@@ -10801,7 +10826,7 @@
       <c r="AE151" s="7"/>
       <c r="AF151" s="9"/>
       <c r="AG151" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH151" s="7"/>
       <c r="AI151" s="7"/>
@@ -10815,7 +10840,7 @@
     </row>
     <row r="152" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="8"/>
@@ -10852,7 +10877,7 @@
       <c r="AE152" s="17"/>
       <c r="AF152" s="18"/>
       <c r="AG152" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH152" s="17"/>
       <c r="AI152" s="17"/>
@@ -10866,7 +10891,7 @@
     </row>
     <row r="153" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B153" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="8"/>
@@ -10903,7 +10928,7 @@
       <c r="AE153" s="7"/>
       <c r="AF153" s="9"/>
       <c r="AG153" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH153" s="7"/>
       <c r="AI153" s="7"/>
@@ -10917,7 +10942,7 @@
     </row>
     <row r="154" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B154" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="8"/>
@@ -10954,7 +10979,7 @@
       <c r="AE154" s="17"/>
       <c r="AF154" s="18"/>
       <c r="AG154" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH154" s="17"/>
       <c r="AI154" s="17"/>
@@ -10968,7 +10993,7 @@
     </row>
     <row r="155" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="8"/>
@@ -11005,7 +11030,7 @@
       <c r="AE155" s="17"/>
       <c r="AF155" s="18"/>
       <c r="AG155" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH155" s="17"/>
       <c r="AI155" s="17"/>
@@ -11019,7 +11044,7 @@
     </row>
     <row r="156" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="8"/>
@@ -11056,7 +11081,7 @@
       <c r="AE156" s="7"/>
       <c r="AF156" s="9"/>
       <c r="AG156" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH156" s="7"/>
       <c r="AI156" s="7"/>
@@ -11070,7 +11095,7 @@
     </row>
     <row r="157" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B157" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="8"/>
@@ -11107,7 +11132,7 @@
       <c r="AE157" s="17"/>
       <c r="AF157" s="18"/>
       <c r="AG157" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH157" s="17"/>
       <c r="AI157" s="17"/>
@@ -11121,7 +11146,7 @@
     </row>
     <row r="158" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C158" s="18"/>
       <c r="D158" s="8"/>
@@ -11158,7 +11183,7 @@
       <c r="AE158" s="17"/>
       <c r="AF158" s="18"/>
       <c r="AG158" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH158" s="17"/>
       <c r="AI158" s="17"/>
@@ -11172,7 +11197,7 @@
     </row>
     <row r="159" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="8"/>
@@ -11209,7 +11234,7 @@
       <c r="AE159" s="7"/>
       <c r="AF159" s="9"/>
       <c r="AG159" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH159" s="7"/>
       <c r="AI159" s="7"/>
@@ -11223,7 +11248,7 @@
     </row>
     <row r="160" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="8"/>
@@ -11260,7 +11285,7 @@
       <c r="AE160" s="17"/>
       <c r="AF160" s="18"/>
       <c r="AG160" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH160" s="17"/>
       <c r="AI160" s="17"/>
@@ -11274,7 +11299,7 @@
     </row>
     <row r="161" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="8"/>
@@ -11311,7 +11336,7 @@
       <c r="AE161" s="7"/>
       <c r="AF161" s="9"/>
       <c r="AG161" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH161" s="7"/>
       <c r="AI161" s="7"/>
@@ -11325,7 +11350,7 @@
     </row>
     <row r="162" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B162" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C162" s="18"/>
       <c r="D162" s="8"/>
@@ -11362,7 +11387,7 @@
       <c r="AE162" s="17"/>
       <c r="AF162" s="18"/>
       <c r="AG162" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH162" s="17"/>
       <c r="AI162" s="17"/>
@@ -11376,7 +11401,7 @@
     </row>
     <row r="163" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B163" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C163" s="18"/>
       <c r="D163" s="8"/>
@@ -11413,7 +11438,7 @@
       <c r="AE163" s="7"/>
       <c r="AF163" s="9"/>
       <c r="AG163" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH163" s="7"/>
       <c r="AI163" s="7"/>
@@ -11427,7 +11452,7 @@
     </row>
     <row r="164" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C164" s="18"/>
       <c r="D164" s="8"/>
@@ -11464,7 +11489,7 @@
       <c r="AE164" s="17"/>
       <c r="AF164" s="18"/>
       <c r="AG164" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH164" s="17"/>
       <c r="AI164" s="17"/>
@@ -11478,7 +11503,7 @@
     </row>
     <row r="165" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C165" s="18"/>
       <c r="D165" s="10"/>
@@ -11515,7 +11540,7 @@
       <c r="AE165" s="11"/>
       <c r="AF165" s="12"/>
       <c r="AG165" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH165" s="11"/>
       <c r="AI165" s="11"/>
@@ -11529,7 +11554,7 @@
     </row>
     <row r="166" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C166" s="18"/>
       <c r="D166" s="8" t="s">
@@ -11568,7 +11593,7 @@
       <c r="AE166" s="7"/>
       <c r="AF166" s="9"/>
       <c r="AG166" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH166" s="7"/>
       <c r="AI166" s="7"/>
@@ -11582,7 +11607,7 @@
     </row>
     <row r="167" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B167" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C167" s="18"/>
       <c r="D167" s="8"/>
@@ -11619,7 +11644,7 @@
       <c r="AE167" s="13"/>
       <c r="AF167" s="15"/>
       <c r="AG167" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH167" s="13"/>
       <c r="AI167" s="13"/>
@@ -11633,7 +11658,7 @@
     </row>
     <row r="168" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B168" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C168" s="18"/>
       <c r="D168" s="8"/>
@@ -11668,7 +11693,7 @@
       <c r="AE168" s="17"/>
       <c r="AF168" s="18"/>
       <c r="AG168" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH168" s="17"/>
       <c r="AI168" s="17"/>
@@ -11682,7 +11707,7 @@
     </row>
     <row r="169" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B169" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C169" s="18"/>
       <c r="D169" s="10"/>
@@ -11717,7 +11742,7 @@
       <c r="AE169" s="11"/>
       <c r="AF169" s="12"/>
       <c r="AG169" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH169" s="11"/>
       <c r="AI169" s="11"/>
@@ -11731,7 +11756,7 @@
     </row>
     <row r="170" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B170" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C170" s="18"/>
       <c r="D170" s="8" t="s">
@@ -11770,7 +11795,7 @@
       <c r="AE170" s="17"/>
       <c r="AF170" s="18"/>
       <c r="AG170" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH170" s="17"/>
       <c r="AI170" s="17"/>
@@ -11784,7 +11809,7 @@
     </row>
     <row r="171" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B171" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C171" s="18"/>
       <c r="D171" s="8"/>
@@ -11821,7 +11846,7 @@
       <c r="AE171" s="17"/>
       <c r="AF171" s="18"/>
       <c r="AG171" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH171" s="17"/>
       <c r="AI171" s="17"/>
@@ -11835,7 +11860,7 @@
     </row>
     <row r="172" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B172" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="8"/>
@@ -11870,7 +11895,7 @@
       <c r="AE172" s="17"/>
       <c r="AF172" s="18"/>
       <c r="AG172" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH172" s="17"/>
       <c r="AI172" s="17"/>
@@ -11884,7 +11909,7 @@
     </row>
     <row r="173" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C173" s="18"/>
       <c r="D173" s="8"/>
@@ -11919,7 +11944,7 @@
       <c r="AE173" s="17"/>
       <c r="AF173" s="18"/>
       <c r="AG173" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH173" s="17"/>
       <c r="AI173" s="17"/>
@@ -11933,7 +11958,7 @@
     </row>
     <row r="174" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C174" s="18"/>
       <c r="D174" s="8"/>
@@ -11968,7 +11993,7 @@
       <c r="AE174" s="17"/>
       <c r="AF174" s="18"/>
       <c r="AG174" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH174" s="17"/>
       <c r="AI174" s="17"/>
@@ -11982,7 +12007,7 @@
     </row>
     <row r="175" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C175" s="18"/>
       <c r="D175" s="8"/>
@@ -12017,7 +12042,7 @@
       <c r="AE175" s="17"/>
       <c r="AF175" s="18"/>
       <c r="AG175" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH175" s="17"/>
       <c r="AI175" s="17"/>
@@ -12031,7 +12056,7 @@
     </row>
     <row r="176" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C176" s="18"/>
       <c r="D176" s="8"/>
@@ -12066,7 +12091,7 @@
       <c r="AE176" s="17"/>
       <c r="AF176" s="18"/>
       <c r="AG176" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH176" s="17"/>
       <c r="AI176" s="17"/>
@@ -12080,7 +12105,7 @@
     </row>
     <row r="177" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C177" s="18"/>
       <c r="D177" s="8"/>
@@ -12115,7 +12140,7 @@
       <c r="AE177" s="17"/>
       <c r="AF177" s="18"/>
       <c r="AG177" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH177" s="17"/>
       <c r="AI177" s="17"/>
@@ -12129,7 +12154,7 @@
     </row>
     <row r="178" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C178" s="18"/>
       <c r="D178" s="8"/>
@@ -12164,7 +12189,7 @@
       <c r="AE178" s="17"/>
       <c r="AF178" s="18"/>
       <c r="AG178" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH178" s="17"/>
       <c r="AI178" s="17"/>
@@ -12178,7 +12203,7 @@
     </row>
     <row r="179" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C179" s="18"/>
       <c r="D179" s="8"/>
@@ -12213,7 +12238,7 @@
       <c r="AE179" s="17"/>
       <c r="AF179" s="18"/>
       <c r="AG179" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH179" s="17"/>
       <c r="AI179" s="17"/>
@@ -12227,7 +12252,7 @@
     </row>
     <row r="180" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C180" s="18"/>
       <c r="D180" s="8"/>
@@ -12262,7 +12287,7 @@
       <c r="AE180" s="17"/>
       <c r="AF180" s="18"/>
       <c r="AG180" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH180" s="17"/>
       <c r="AI180" s="17"/>
@@ -12276,7 +12301,7 @@
     </row>
     <row r="181" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B181" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C181" s="18"/>
       <c r="D181" s="8"/>
@@ -12311,7 +12336,7 @@
       <c r="AE181" s="17"/>
       <c r="AF181" s="18"/>
       <c r="AG181" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH181" s="17"/>
       <c r="AI181" s="17"/>
@@ -12325,7 +12350,7 @@
     </row>
     <row r="182" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C182" s="18"/>
       <c r="D182" s="8"/>
@@ -12360,7 +12385,7 @@
       <c r="AE182" s="17"/>
       <c r="AF182" s="18"/>
       <c r="AG182" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH182" s="17"/>
       <c r="AI182" s="17"/>
@@ -12374,7 +12399,7 @@
     </row>
     <row r="183" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C183" s="18"/>
       <c r="D183" s="8"/>
@@ -12409,7 +12434,7 @@
       <c r="AE183" s="17"/>
       <c r="AF183" s="18"/>
       <c r="AG183" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH183" s="17"/>
       <c r="AI183" s="17"/>
@@ -12423,7 +12448,7 @@
     </row>
     <row r="184" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B184" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="8"/>
@@ -12458,7 +12483,7 @@
       <c r="AE184" s="17"/>
       <c r="AF184" s="18"/>
       <c r="AG184" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH184" s="17"/>
       <c r="AI184" s="17"/>
@@ -12472,7 +12497,7 @@
     </row>
     <row r="185" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B185" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C185" s="18"/>
       <c r="D185" s="8"/>
@@ -12507,7 +12532,7 @@
       <c r="AE185" s="17"/>
       <c r="AF185" s="18"/>
       <c r="AG185" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH185" s="17"/>
       <c r="AI185" s="17"/>
@@ -12521,7 +12546,7 @@
     </row>
     <row r="186" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B186" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="8"/>
@@ -12556,7 +12581,7 @@
       <c r="AE186" s="17"/>
       <c r="AF186" s="18"/>
       <c r="AG186" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH186" s="17"/>
       <c r="AI186" s="17"/>
@@ -12570,7 +12595,7 @@
     </row>
     <row r="187" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B187" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C187" s="18"/>
       <c r="D187" s="8"/>
@@ -12605,7 +12630,7 @@
       <c r="AE187" s="17"/>
       <c r="AF187" s="18"/>
       <c r="AG187" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH187" s="17"/>
       <c r="AI187" s="17"/>
@@ -12619,7 +12644,7 @@
     </row>
     <row r="188" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C188" s="18"/>
       <c r="D188" s="8"/>
@@ -12654,7 +12679,7 @@
       <c r="AE188" s="17"/>
       <c r="AF188" s="18"/>
       <c r="AG188" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH188" s="17"/>
       <c r="AI188" s="17"/>
@@ -12668,7 +12693,7 @@
     </row>
     <row r="189" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B189" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C189" s="18"/>
       <c r="D189" s="8"/>
@@ -12703,7 +12728,7 @@
       <c r="AE189" s="17"/>
       <c r="AF189" s="18"/>
       <c r="AG189" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH189" s="17"/>
       <c r="AI189" s="17"/>
@@ -12717,7 +12742,7 @@
     </row>
     <row r="190" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B190" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C190" s="18"/>
       <c r="D190" s="8"/>
@@ -12752,7 +12777,7 @@
       <c r="AE190" s="17"/>
       <c r="AF190" s="18"/>
       <c r="AG190" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH190" s="17"/>
       <c r="AI190" s="17"/>
@@ -12766,7 +12791,7 @@
     </row>
     <row r="191" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B191" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C191" s="18"/>
       <c r="D191" s="8"/>
@@ -12801,7 +12826,7 @@
       <c r="AE191" s="17"/>
       <c r="AF191" s="18"/>
       <c r="AG191" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH191" s="17"/>
       <c r="AI191" s="17"/>
@@ -12815,7 +12840,7 @@
     </row>
     <row r="192" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C192" s="18"/>
       <c r="D192" s="8"/>
@@ -12850,7 +12875,7 @@
       <c r="AE192" s="17"/>
       <c r="AF192" s="18"/>
       <c r="AG192" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH192" s="17"/>
       <c r="AI192" s="17"/>
@@ -12864,7 +12889,7 @@
     </row>
     <row r="193" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B193" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C193" s="18"/>
       <c r="D193" s="8"/>
@@ -12899,7 +12924,7 @@
       <c r="AE193" s="17"/>
       <c r="AF193" s="18"/>
       <c r="AG193" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH193" s="17"/>
       <c r="AI193" s="17"/>
@@ -12913,7 +12938,7 @@
     </row>
     <row r="194" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C194" s="18"/>
       <c r="D194" s="8"/>
@@ -12948,7 +12973,7 @@
       <c r="AE194" s="17"/>
       <c r="AF194" s="18"/>
       <c r="AG194" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH194" s="17"/>
       <c r="AI194" s="17"/>
@@ -12962,7 +12987,7 @@
     </row>
     <row r="195" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C195" s="18"/>
       <c r="D195" s="10"/>
@@ -12997,7 +13022,7 @@
       <c r="AE195" s="17"/>
       <c r="AF195" s="18"/>
       <c r="AG195" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH195" s="17"/>
       <c r="AI195" s="17"/>
@@ -13011,7 +13036,7 @@
     </row>
     <row r="196" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B196" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C196" s="12"/>
       <c r="D196" s="8" t="s">
@@ -13050,7 +13075,7 @@
       <c r="AE196" s="17"/>
       <c r="AF196" s="18"/>
       <c r="AG196" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH196" s="17"/>
       <c r="AI196" s="17"/>
@@ -13064,7 +13089,7 @@
     </row>
     <row r="197" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B197" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C197" s="12"/>
       <c r="D197" s="8"/>
@@ -13101,7 +13126,7 @@
       <c r="AE197" s="17"/>
       <c r="AF197" s="18"/>
       <c r="AG197" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH197" s="17"/>
       <c r="AI197" s="17"/>
@@ -13115,7 +13140,7 @@
     </row>
     <row r="198" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B198" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C198" s="12"/>
       <c r="D198" s="8"/>
@@ -13150,7 +13175,7 @@
       <c r="AE198" s="17"/>
       <c r="AF198" s="18"/>
       <c r="AG198" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH198" s="17"/>
       <c r="AI198" s="17"/>
@@ -13164,7 +13189,7 @@
     </row>
     <row r="199" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B199" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C199" s="12"/>
       <c r="D199" s="8"/>
@@ -13199,7 +13224,7 @@
       <c r="AE199" s="17"/>
       <c r="AF199" s="18"/>
       <c r="AG199" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH199" s="17"/>
       <c r="AI199" s="17"/>
@@ -13213,7 +13238,7 @@
     </row>
     <row r="200" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B200" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C200" s="12"/>
       <c r="D200" s="8"/>
@@ -13248,7 +13273,7 @@
       <c r="AE200" s="17"/>
       <c r="AF200" s="18"/>
       <c r="AG200" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH200" s="17"/>
       <c r="AI200" s="17"/>
@@ -13262,7 +13287,7 @@
     </row>
     <row r="201" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B201" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C201" s="12"/>
       <c r="D201" s="8"/>
@@ -13297,7 +13322,7 @@
       <c r="AE201" s="17"/>
       <c r="AF201" s="18"/>
       <c r="AG201" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH201" s="17"/>
       <c r="AI201" s="17"/>
@@ -13311,7 +13336,7 @@
     </row>
     <row r="202" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B202" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C202" s="12"/>
       <c r="D202" s="8"/>
@@ -13346,7 +13371,7 @@
       <c r="AE202" s="17"/>
       <c r="AF202" s="18"/>
       <c r="AG202" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH202" s="17"/>
       <c r="AI202" s="17"/>
@@ -13360,7 +13385,7 @@
     </row>
     <row r="203" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B203" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C203" s="12"/>
       <c r="D203" s="8"/>
@@ -13395,7 +13420,7 @@
       <c r="AE203" s="17"/>
       <c r="AF203" s="18"/>
       <c r="AG203" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH203" s="17"/>
       <c r="AI203" s="17"/>
@@ -13409,7 +13434,7 @@
     </row>
     <row r="204" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B204" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C204" s="12"/>
       <c r="D204" s="8"/>
@@ -13444,7 +13469,7 @@
       <c r="AE204" s="17"/>
       <c r="AF204" s="18"/>
       <c r="AG204" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH204" s="17"/>
       <c r="AI204" s="17"/>
@@ -13458,7 +13483,7 @@
     </row>
     <row r="205" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B205" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C205" s="12"/>
       <c r="D205" s="8"/>
@@ -13493,7 +13518,7 @@
       <c r="AE205" s="17"/>
       <c r="AF205" s="18"/>
       <c r="AG205" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH205" s="17"/>
       <c r="AI205" s="17"/>
@@ -13507,7 +13532,7 @@
     </row>
     <row r="206" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B206" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C206" s="12"/>
       <c r="D206" s="8"/>
@@ -13542,7 +13567,7 @@
       <c r="AE206" s="17"/>
       <c r="AF206" s="18"/>
       <c r="AG206" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH206" s="17"/>
       <c r="AI206" s="17"/>
@@ -13556,7 +13581,7 @@
     </row>
     <row r="207" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B207" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C207" s="12"/>
       <c r="D207" s="8"/>
@@ -13591,7 +13616,7 @@
       <c r="AE207" s="17"/>
       <c r="AF207" s="18"/>
       <c r="AG207" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH207" s="17"/>
       <c r="AI207" s="17"/>
@@ -13605,7 +13630,7 @@
     </row>
     <row r="208" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B208" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C208" s="12"/>
       <c r="D208" s="8"/>
@@ -13640,7 +13665,7 @@
       <c r="AE208" s="17"/>
       <c r="AF208" s="18"/>
       <c r="AG208" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH208" s="17"/>
       <c r="AI208" s="17"/>
@@ -13654,7 +13679,7 @@
     </row>
     <row r="209" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B209" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C209" s="12"/>
       <c r="D209" s="10"/>
@@ -13689,7 +13714,7 @@
       <c r="AE209" s="17"/>
       <c r="AF209" s="18"/>
       <c r="AG209" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH209" s="17"/>
       <c r="AI209" s="17"/>
@@ -13703,7 +13728,7 @@
     </row>
     <row r="210" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B210" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="14" t="s">
@@ -13742,7 +13767,7 @@
       <c r="AE210" s="7"/>
       <c r="AF210" s="9"/>
       <c r="AG210" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH210" s="7"/>
       <c r="AI210" s="7"/>
@@ -13756,7 +13781,7 @@
     </row>
     <row r="211" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B211" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C211" s="18"/>
       <c r="D211" s="8"/>
@@ -13793,7 +13818,7 @@
       <c r="AE211" s="13"/>
       <c r="AF211" s="15"/>
       <c r="AG211" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH211" s="13"/>
       <c r="AI211" s="13"/>
@@ -13807,7 +13832,7 @@
     </row>
     <row r="212" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B212" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C212" s="18"/>
       <c r="D212" s="8"/>
@@ -13842,7 +13867,7 @@
       <c r="AE212" s="17"/>
       <c r="AF212" s="18"/>
       <c r="AG212" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH212" s="17"/>
       <c r="AI212" s="17"/>
@@ -13856,7 +13881,7 @@
     </row>
     <row r="213" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B213" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C213" s="18"/>
       <c r="D213" s="10"/>
@@ -13891,7 +13916,7 @@
       <c r="AE213" s="11"/>
       <c r="AF213" s="12"/>
       <c r="AG213" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH213" s="11"/>
       <c r="AI213" s="11"/>
@@ -13905,7 +13930,7 @@
     </row>
     <row r="214" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C214" s="18"/>
       <c r="D214" s="8" t="s">
@@ -13944,7 +13969,7 @@
       <c r="AE214" s="17"/>
       <c r="AF214" s="18"/>
       <c r="AG214" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH214" s="17"/>
       <c r="AI214" s="17"/>
@@ -13958,7 +13983,7 @@
     </row>
     <row r="215" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="8"/>
@@ -13995,7 +14020,7 @@
       <c r="AE215" s="17"/>
       <c r="AF215" s="18"/>
       <c r="AG215" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH215" s="17"/>
       <c r="AI215" s="17"/>
@@ -14009,7 +14034,7 @@
     </row>
     <row r="216" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B216" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C216" s="18"/>
       <c r="D216" s="8"/>
@@ -14044,7 +14069,7 @@
       <c r="AE216" s="17"/>
       <c r="AF216" s="18"/>
       <c r="AG216" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH216" s="17"/>
       <c r="AI216" s="17"/>
@@ -14058,7 +14083,7 @@
     </row>
     <row r="217" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B217" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="8"/>
@@ -14093,7 +14118,7 @@
       <c r="AE217" s="17"/>
       <c r="AF217" s="18"/>
       <c r="AG217" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH217" s="17"/>
       <c r="AI217" s="17"/>
@@ -14107,7 +14132,7 @@
     </row>
     <row r="218" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B218" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C218" s="18"/>
       <c r="D218" s="8"/>
@@ -14142,7 +14167,7 @@
       <c r="AE218" s="17"/>
       <c r="AF218" s="18"/>
       <c r="AG218" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH218" s="17"/>
       <c r="AI218" s="17"/>
@@ -14156,7 +14181,7 @@
     </row>
     <row r="219" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B219" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="8"/>
@@ -14191,7 +14216,7 @@
       <c r="AE219" s="17"/>
       <c r="AF219" s="18"/>
       <c r="AG219" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH219" s="17"/>
       <c r="AI219" s="17"/>
@@ -14205,7 +14230,7 @@
     </row>
     <row r="220" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B220" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="8"/>
@@ -14240,7 +14265,7 @@
       <c r="AE220" s="17"/>
       <c r="AF220" s="18"/>
       <c r="AG220" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH220" s="17"/>
       <c r="AI220" s="17"/>
@@ -14254,7 +14279,7 @@
     </row>
     <row r="221" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B221" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C221" s="18"/>
       <c r="D221" s="8"/>
@@ -14289,7 +14314,7 @@
       <c r="AE221" s="17"/>
       <c r="AF221" s="18"/>
       <c r="AG221" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH221" s="17"/>
       <c r="AI221" s="17"/>
@@ -14303,7 +14328,7 @@
     </row>
     <row r="222" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B222" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C222" s="18"/>
       <c r="D222" s="8"/>
@@ -14338,7 +14363,7 @@
       <c r="AE222" s="17"/>
       <c r="AF222" s="18"/>
       <c r="AG222" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH222" s="17"/>
       <c r="AI222" s="17"/>
@@ -14352,7 +14377,7 @@
     </row>
     <row r="223" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B223" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C223" s="18"/>
       <c r="D223" s="8"/>
@@ -14387,7 +14412,7 @@
       <c r="AE223" s="17"/>
       <c r="AF223" s="18"/>
       <c r="AG223" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH223" s="17"/>
       <c r="AI223" s="17"/>
@@ -14401,7 +14426,7 @@
     </row>
     <row r="224" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B224" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="8"/>
@@ -14436,7 +14461,7 @@
       <c r="AE224" s="17"/>
       <c r="AF224" s="18"/>
       <c r="AG224" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH224" s="17"/>
       <c r="AI224" s="17"/>
@@ -14450,7 +14475,7 @@
     </row>
     <row r="225" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B225" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C225" s="18"/>
       <c r="D225" s="8"/>
@@ -14485,7 +14510,7 @@
       <c r="AE225" s="17"/>
       <c r="AF225" s="18"/>
       <c r="AG225" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH225" s="17"/>
       <c r="AI225" s="17"/>
@@ -14499,7 +14524,7 @@
     </row>
     <row r="226" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B226" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C226" s="18"/>
       <c r="D226" s="8"/>
@@ -14534,7 +14559,7 @@
       <c r="AE226" s="17"/>
       <c r="AF226" s="18"/>
       <c r="AG226" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH226" s="17"/>
       <c r="AI226" s="17"/>
@@ -14548,7 +14573,7 @@
     </row>
     <row r="227" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B227" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C227" s="18"/>
       <c r="D227" s="8"/>
@@ -14583,7 +14608,7 @@
       <c r="AE227" s="17"/>
       <c r="AF227" s="18"/>
       <c r="AG227" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH227" s="17"/>
       <c r="AI227" s="17"/>
@@ -14597,7 +14622,7 @@
     </row>
     <row r="228" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B228" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C228" s="18"/>
       <c r="D228" s="8"/>
@@ -14632,7 +14657,7 @@
       <c r="AE228" s="17"/>
       <c r="AF228" s="18"/>
       <c r="AG228" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH228" s="17"/>
       <c r="AI228" s="17"/>
@@ -14646,7 +14671,7 @@
     </row>
     <row r="229" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B229" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C229" s="18"/>
       <c r="D229" s="8"/>
@@ -14681,7 +14706,7 @@
       <c r="AE229" s="17"/>
       <c r="AF229" s="18"/>
       <c r="AG229" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH229" s="17"/>
       <c r="AI229" s="17"/>
@@ -14695,7 +14720,7 @@
     </row>
     <row r="230" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B230" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C230" s="18"/>
       <c r="D230" s="8"/>
@@ -14730,7 +14755,7 @@
       <c r="AE230" s="17"/>
       <c r="AF230" s="18"/>
       <c r="AG230" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH230" s="17"/>
       <c r="AI230" s="17"/>
@@ -14744,7 +14769,7 @@
     </row>
     <row r="231" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B231" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C231" s="18"/>
       <c r="D231" s="8"/>
@@ -14779,7 +14804,7 @@
       <c r="AE231" s="17"/>
       <c r="AF231" s="18"/>
       <c r="AG231" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH231" s="17"/>
       <c r="AI231" s="17"/>
@@ -14793,7 +14818,7 @@
     </row>
     <row r="232" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B232" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C232" s="18"/>
       <c r="D232" s="8"/>
@@ -14828,7 +14853,7 @@
       <c r="AE232" s="17"/>
       <c r="AF232" s="18"/>
       <c r="AG232" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH232" s="17"/>
       <c r="AI232" s="17"/>
@@ -14842,7 +14867,7 @@
     </row>
     <row r="233" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B233" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C233" s="18"/>
       <c r="D233" s="8"/>
@@ -14877,7 +14902,7 @@
       <c r="AE233" s="17"/>
       <c r="AF233" s="18"/>
       <c r="AG233" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH233" s="17"/>
       <c r="AI233" s="17"/>
@@ -14891,7 +14916,7 @@
     </row>
     <row r="234" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B234" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C234" s="18"/>
       <c r="D234" s="8"/>
@@ -14926,7 +14951,7 @@
       <c r="AE234" s="17"/>
       <c r="AF234" s="18"/>
       <c r="AG234" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH234" s="17"/>
       <c r="AI234" s="17"/>
@@ -14940,7 +14965,7 @@
     </row>
     <row r="235" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B235" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C235" s="18"/>
       <c r="D235" s="8"/>
@@ -14975,7 +15000,7 @@
       <c r="AE235" s="17"/>
       <c r="AF235" s="18"/>
       <c r="AG235" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH235" s="17"/>
       <c r="AI235" s="17"/>
@@ -14989,7 +15014,7 @@
     </row>
     <row r="236" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B236" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C236" s="18"/>
       <c r="D236" s="8"/>
@@ -15024,7 +15049,7 @@
       <c r="AE236" s="17"/>
       <c r="AF236" s="18"/>
       <c r="AG236" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH236" s="17"/>
       <c r="AI236" s="17"/>
@@ -15038,7 +15063,7 @@
     </row>
     <row r="237" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B237" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C237" s="18"/>
       <c r="D237" s="8"/>
@@ -15073,7 +15098,7 @@
       <c r="AE237" s="17"/>
       <c r="AF237" s="18"/>
       <c r="AG237" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH237" s="17"/>
       <c r="AI237" s="17"/>
@@ -15087,7 +15112,7 @@
     </row>
     <row r="238" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B238" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C238" s="18"/>
       <c r="D238" s="8"/>
@@ -15122,7 +15147,7 @@
       <c r="AE238" s="17"/>
       <c r="AF238" s="18"/>
       <c r="AG238" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH238" s="17"/>
       <c r="AI238" s="17"/>
@@ -15136,7 +15161,7 @@
     </row>
     <row r="239" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B239" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C239" s="18"/>
       <c r="D239" s="8"/>
@@ -15171,7 +15196,7 @@
       <c r="AE239" s="13"/>
       <c r="AF239" s="15"/>
       <c r="AG239" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH239" s="13"/>
       <c r="AI239" s="13"/>
@@ -15185,7 +15210,7 @@
     </row>
     <row r="240" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B240" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C240" s="11"/>
       <c r="D240" s="14" t="s">
@@ -15224,7 +15249,7 @@
       <c r="AE240" s="17"/>
       <c r="AF240" s="18"/>
       <c r="AG240" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH240" s="17"/>
       <c r="AI240" s="17"/>
@@ -15238,7 +15263,7 @@
     </row>
     <row r="241" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B241" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" s="8"/>
@@ -15275,7 +15300,7 @@
       <c r="AE241" s="17"/>
       <c r="AF241" s="18"/>
       <c r="AG241" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH241" s="17"/>
       <c r="AI241" s="17"/>
@@ -15289,7 +15314,7 @@
     </row>
     <row r="242" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B242" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C242" s="11"/>
       <c r="D242" s="8"/>
@@ -15324,7 +15349,7 @@
       <c r="AE242" s="17"/>
       <c r="AF242" s="18"/>
       <c r="AG242" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH242" s="17"/>
       <c r="AI242" s="17"/>
@@ -15338,7 +15363,7 @@
     </row>
     <row r="243" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B243" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C243" s="11"/>
       <c r="D243" s="8"/>
@@ -15373,7 +15398,7 @@
       <c r="AE243" s="17"/>
       <c r="AF243" s="18"/>
       <c r="AG243" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH243" s="17"/>
       <c r="AI243" s="17"/>
@@ -15387,7 +15412,7 @@
     </row>
     <row r="244" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B244" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C244" s="11"/>
       <c r="D244" s="8"/>
@@ -15422,7 +15447,7 @@
       <c r="AE244" s="17"/>
       <c r="AF244" s="18"/>
       <c r="AG244" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH244" s="17"/>
       <c r="AI244" s="17"/>
@@ -15436,7 +15461,7 @@
     </row>
     <row r="245" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B245" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C245" s="11"/>
       <c r="D245" s="8"/>
@@ -15471,7 +15496,7 @@
       <c r="AE245" s="17"/>
       <c r="AF245" s="18"/>
       <c r="AG245" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH245" s="17"/>
       <c r="AI245" s="17"/>
@@ -15485,7 +15510,7 @@
     </row>
     <row r="246" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B246" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C246" s="11"/>
       <c r="D246" s="8"/>
@@ -15520,7 +15545,7 @@
       <c r="AE246" s="17"/>
       <c r="AF246" s="18"/>
       <c r="AG246" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH246" s="17"/>
       <c r="AI246" s="17"/>
@@ -15534,7 +15559,7 @@
     </row>
     <row r="247" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B247" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C247" s="11"/>
       <c r="D247" s="8"/>
@@ -15569,7 +15594,7 @@
       <c r="AE247" s="17"/>
       <c r="AF247" s="18"/>
       <c r="AG247" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH247" s="17"/>
       <c r="AI247" s="17"/>
@@ -15583,7 +15608,7 @@
     </row>
     <row r="248" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B248" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C248" s="11"/>
       <c r="D248" s="8"/>
@@ -15618,7 +15643,7 @@
       <c r="AE248" s="17"/>
       <c r="AF248" s="18"/>
       <c r="AG248" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH248" s="17"/>
       <c r="AI248" s="17"/>
@@ -15632,7 +15657,7 @@
     </row>
     <row r="249" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B249" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C249" s="11"/>
       <c r="D249" s="8"/>
@@ -15667,7 +15692,7 @@
       <c r="AE249" s="17"/>
       <c r="AF249" s="18"/>
       <c r="AG249" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH249" s="17"/>
       <c r="AI249" s="17"/>
@@ -15681,7 +15706,7 @@
     </row>
     <row r="250" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B250" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C250" s="11"/>
       <c r="D250" s="8"/>
@@ -15716,7 +15741,7 @@
       <c r="AE250" s="17"/>
       <c r="AF250" s="18"/>
       <c r="AG250" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH250" s="17"/>
       <c r="AI250" s="17"/>
@@ -15730,7 +15755,7 @@
     </row>
     <row r="251" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B251" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C251" s="11"/>
       <c r="D251" s="8"/>
@@ -15765,7 +15790,7 @@
       <c r="AE251" s="17"/>
       <c r="AF251" s="18"/>
       <c r="AG251" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH251" s="17"/>
       <c r="AI251" s="17"/>
@@ -15779,7 +15804,7 @@
     </row>
     <row r="252" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B252" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C252" s="11"/>
       <c r="D252" s="8"/>
@@ -15814,7 +15839,7 @@
       <c r="AE252" s="17"/>
       <c r="AF252" s="18"/>
       <c r="AG252" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH252" s="17"/>
       <c r="AI252" s="17"/>
@@ -15828,7 +15853,7 @@
     </row>
     <row r="253" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B253" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C253" s="11"/>
       <c r="D253" s="8"/>
@@ -15863,7 +15888,7 @@
       <c r="AE253" s="17"/>
       <c r="AF253" s="18"/>
       <c r="AG253" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH253" s="17"/>
       <c r="AI253" s="17"/>
@@ -15877,7 +15902,7 @@
     </row>
     <row r="254" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B254" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C254" s="17"/>
       <c r="D254" s="14" t="s">
@@ -15916,7 +15941,7 @@
       <c r="AE254" s="17"/>
       <c r="AF254" s="18"/>
       <c r="AG254" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH254" s="17"/>
       <c r="AI254" s="17"/>
@@ -15930,7 +15955,7 @@
     </row>
     <row r="255" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B255" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C255" s="17"/>
       <c r="D255" s="8"/>
@@ -15967,7 +15992,7 @@
       <c r="AE255" s="17"/>
       <c r="AF255" s="18"/>
       <c r="AG255" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH255" s="17"/>
       <c r="AI255" s="17"/>
@@ -15981,7 +16006,7 @@
     </row>
     <row r="256" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B256" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C256" s="17"/>
       <c r="D256" s="8"/>
@@ -16016,7 +16041,7 @@
       <c r="AE256" s="17"/>
       <c r="AF256" s="18"/>
       <c r="AG256" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH256" s="17"/>
       <c r="AI256" s="17"/>
@@ -16030,7 +16055,7 @@
     </row>
     <row r="257" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B257" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C257" s="17"/>
       <c r="D257" s="8"/>
@@ -16065,7 +16090,7 @@
       <c r="AE257" s="17"/>
       <c r="AF257" s="18"/>
       <c r="AG257" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH257" s="17"/>
       <c r="AI257" s="17"/>
@@ -16079,7 +16104,7 @@
     </row>
     <row r="258" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B258" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C258" s="17"/>
       <c r="D258" s="8"/>
@@ -16114,7 +16139,7 @@
       <c r="AE258" s="17"/>
       <c r="AF258" s="18"/>
       <c r="AG258" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH258" s="17"/>
       <c r="AI258" s="17"/>
@@ -16128,7 +16153,7 @@
     </row>
     <row r="259" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B259" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C259" s="17"/>
       <c r="D259" s="8"/>
@@ -16163,7 +16188,7 @@
       <c r="AE259" s="17"/>
       <c r="AF259" s="18"/>
       <c r="AG259" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH259" s="17"/>
       <c r="AI259" s="17"/>
@@ -16177,7 +16202,7 @@
     </row>
     <row r="260" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B260" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C260" s="17"/>
       <c r="D260" s="8"/>
@@ -16212,7 +16237,7 @@
       <c r="AE260" s="17"/>
       <c r="AF260" s="18"/>
       <c r="AG260" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH260" s="17"/>
       <c r="AI260" s="17"/>
@@ -16226,7 +16251,7 @@
     </row>
     <row r="261" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B261" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C261" s="17"/>
       <c r="D261" s="8"/>
@@ -16261,7 +16286,7 @@
       <c r="AE261" s="17"/>
       <c r="AF261" s="18"/>
       <c r="AG261" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH261" s="17"/>
       <c r="AI261" s="17"/>
@@ -16275,7 +16300,7 @@
     </row>
     <row r="262" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B262" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C262" s="17"/>
       <c r="D262" s="8"/>
@@ -16310,7 +16335,7 @@
       <c r="AE262" s="17"/>
       <c r="AF262" s="18"/>
       <c r="AG262" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH262" s="17"/>
       <c r="AI262" s="17"/>
@@ -16324,7 +16349,7 @@
     </row>
     <row r="263" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B263" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C263" s="17"/>
       <c r="D263" s="8"/>
@@ -16359,7 +16384,7 @@
       <c r="AE263" s="17"/>
       <c r="AF263" s="18"/>
       <c r="AG263" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH263" s="17"/>
       <c r="AI263" s="17"/>
@@ -16373,7 +16398,7 @@
     </row>
     <row r="264" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B264" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C264" s="17"/>
       <c r="D264" s="14" t="s">
@@ -16412,7 +16437,7 @@
       <c r="AE264" s="17"/>
       <c r="AF264" s="18"/>
       <c r="AG264" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH264" s="17"/>
       <c r="AI264" s="17"/>
@@ -16426,7 +16451,7 @@
     </row>
     <row r="265" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B265" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C265" s="17"/>
       <c r="D265" s="8"/>
@@ -16463,7 +16488,7 @@
       <c r="AE265" s="17"/>
       <c r="AF265" s="18"/>
       <c r="AG265" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH265" s="17"/>
       <c r="AI265" s="17"/>
@@ -16477,7 +16502,7 @@
     </row>
     <row r="266" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B266" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C266" s="17"/>
       <c r="D266" s="8"/>
@@ -16496,7 +16521,7 @@
       <c r="Q266" s="7"/>
       <c r="R266" s="9"/>
       <c r="S266" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T266" s="17"/>
       <c r="U266" s="17"/>
@@ -16512,7 +16537,7 @@
       <c r="AE266" s="17"/>
       <c r="AF266" s="18"/>
       <c r="AG266" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH266" s="17"/>
       <c r="AI266" s="17"/>
@@ -16526,7 +16551,7 @@
     </row>
     <row r="267" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B267" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C267" s="17"/>
       <c r="D267" s="8"/>
@@ -16545,7 +16570,7 @@
       <c r="Q267" s="7"/>
       <c r="R267" s="9"/>
       <c r="S267" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T267" s="17"/>
       <c r="U267" s="17"/>
@@ -16561,7 +16586,7 @@
       <c r="AE267" s="17"/>
       <c r="AF267" s="18"/>
       <c r="AG267" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH267" s="17"/>
       <c r="AI267" s="17"/>
@@ -16575,7 +16600,7 @@
     </row>
     <row r="268" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B268" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C268" s="17"/>
       <c r="D268" s="8"/>
@@ -16594,7 +16619,7 @@
       <c r="Q268" s="7"/>
       <c r="R268" s="9"/>
       <c r="S268" s="17" t="s">
-        <v>230</v>
+        <v>463</v>
       </c>
       <c r="T268" s="17"/>
       <c r="U268" s="17"/>
@@ -16610,7 +16635,7 @@
       <c r="AE268" s="17"/>
       <c r="AF268" s="18"/>
       <c r="AG268" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH268" s="17"/>
       <c r="AI268" s="17"/>
@@ -16624,7 +16649,7 @@
     </row>
     <row r="269" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B269" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C269" s="17"/>
       <c r="D269" s="14" t="s">
@@ -16663,7 +16688,7 @@
       <c r="AE269" s="17"/>
       <c r="AF269" s="18"/>
       <c r="AG269" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH269" s="17"/>
       <c r="AI269" s="17"/>
@@ -16677,7 +16702,7 @@
     </row>
     <row r="270" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B270" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="8"/>
@@ -16685,7 +16710,7 @@
       <c r="F270" s="7"/>
       <c r="G270" s="9"/>
       <c r="H270" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I270" s="17"/>
       <c r="J270" s="17"/>
@@ -16698,7 +16723,7 @@
       <c r="Q270" s="17"/>
       <c r="R270" s="18"/>
       <c r="S270" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T270" s="17"/>
       <c r="U270" s="17"/>
@@ -16714,7 +16739,7 @@
       <c r="AE270" s="17"/>
       <c r="AF270" s="18"/>
       <c r="AG270" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH270" s="17"/>
       <c r="AI270" s="17"/>
@@ -16728,7 +16753,7 @@
     </row>
     <row r="271" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B271" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="14" t="s">
@@ -16767,7 +16792,7 @@
       <c r="AE271" s="17"/>
       <c r="AF271" s="18"/>
       <c r="AG271" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH271" s="17"/>
       <c r="AI271" s="17"/>
@@ -16781,7 +16806,7 @@
     </row>
     <row r="272" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B272" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C272" s="12"/>
       <c r="D272" s="8"/>
@@ -16789,7 +16814,7 @@
       <c r="F272" s="7"/>
       <c r="G272" s="9"/>
       <c r="H272" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I272" s="17"/>
       <c r="J272" s="17"/>
@@ -16802,7 +16827,7 @@
       <c r="Q272" s="17"/>
       <c r="R272" s="18"/>
       <c r="S272" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T272" s="17"/>
       <c r="U272" s="17"/>
@@ -16818,7 +16843,7 @@
       <c r="AE272" s="17"/>
       <c r="AF272" s="18"/>
       <c r="AG272" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH272" s="17"/>
       <c r="AI272" s="17"/>
@@ -16832,7 +16857,7 @@
     </row>
     <row r="273" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B273" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C273" s="11"/>
       <c r="D273" s="14" t="s">
@@ -16871,7 +16896,7 @@
       <c r="AE273" s="17"/>
       <c r="AF273" s="18"/>
       <c r="AG273" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH273" s="17"/>
       <c r="AI273" s="17"/>
@@ -16885,7 +16910,7 @@
     </row>
     <row r="274" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B274" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C274" s="7"/>
       <c r="D274" s="8"/>
@@ -16893,7 +16918,7 @@
       <c r="F274" s="7"/>
       <c r="G274" s="9"/>
       <c r="H274" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I274" s="13"/>
       <c r="J274" s="13"/>
@@ -16906,7 +16931,7 @@
       <c r="Q274" s="13"/>
       <c r="R274" s="15"/>
       <c r="S274" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="T274" s="13"/>
       <c r="U274" s="13"/>
@@ -16922,7 +16947,7 @@
       <c r="AE274" s="13"/>
       <c r="AF274" s="15"/>
       <c r="AG274" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH274" s="13"/>
       <c r="AI274" s="13"/>
@@ -16935,117 +16960,121 @@
       <c r="AP274" s="15"/>
     </row>
     <row r="275" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B275" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="C275" s="13"/>
-      <c r="D275" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E275" s="13"/>
-      <c r="F275" s="13"/>
-      <c r="G275" s="15"/>
+      <c r="B275" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C275" s="18"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="9"/>
       <c r="H275" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I275" s="17"/>
-      <c r="J275" s="17"/>
-      <c r="K275" s="17"/>
-      <c r="L275" s="17"/>
-      <c r="M275" s="17"/>
-      <c r="N275" s="17"/>
-      <c r="O275" s="17"/>
-      <c r="P275" s="17"/>
-      <c r="Q275" s="17"/>
-      <c r="R275" s="18"/>
-      <c r="S275" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="T275" s="17"/>
-      <c r="U275" s="17"/>
-      <c r="V275" s="17"/>
-      <c r="W275" s="17"/>
-      <c r="X275" s="17"/>
-      <c r="Y275" s="17"/>
-      <c r="Z275" s="17"/>
-      <c r="AA275" s="17"/>
-      <c r="AB275" s="17"/>
-      <c r="AC275" s="17"/>
-      <c r="AD275" s="17"/>
-      <c r="AE275" s="17"/>
-      <c r="AF275" s="18"/>
+        <v>447</v>
+      </c>
+      <c r="I275" s="13"/>
+      <c r="J275" s="13"/>
+      <c r="K275" s="13"/>
+      <c r="L275" s="13"/>
+      <c r="M275" s="13"/>
+      <c r="N275" s="13"/>
+      <c r="O275" s="13"/>
+      <c r="P275" s="13"/>
+      <c r="Q275" s="13"/>
+      <c r="R275" s="15"/>
+      <c r="S275" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="T275" s="13"/>
+      <c r="U275" s="13"/>
+      <c r="V275" s="13"/>
+      <c r="W275" s="13"/>
+      <c r="X275" s="13"/>
+      <c r="Y275" s="13"/>
+      <c r="Z275" s="13"/>
+      <c r="AA275" s="13"/>
+      <c r="AB275" s="13"/>
+      <c r="AC275" s="13"/>
+      <c r="AD275" s="13"/>
+      <c r="AE275" s="13"/>
+      <c r="AF275" s="15"/>
       <c r="AG275" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="AH275" s="17"/>
-      <c r="AI275" s="17"/>
-      <c r="AJ275" s="18"/>
-      <c r="AK275" s="16"/>
-      <c r="AL275" s="17"/>
-      <c r="AM275" s="17"/>
-      <c r="AN275" s="17"/>
-      <c r="AO275" s="17"/>
-      <c r="AP275" s="18"/>
+        <v>469</v>
+      </c>
+      <c r="AH275" s="13"/>
+      <c r="AI275" s="13"/>
+      <c r="AJ275" s="15"/>
+      <c r="AK275" s="14"/>
+      <c r="AL275" s="13"/>
+      <c r="AM275" s="13"/>
+      <c r="AN275" s="13"/>
+      <c r="AO275" s="13"/>
+      <c r="AP275" s="15"/>
     </row>
     <row r="276" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B276" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="C276" s="15"/>
-      <c r="D276" s="7"/>
-      <c r="E276" s="7"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="9"/>
-      <c r="H276" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="I276" s="7"/>
-      <c r="J276" s="7"/>
-      <c r="K276" s="7"/>
-      <c r="L276" s="7"/>
-      <c r="M276" s="7"/>
-      <c r="N276" s="7"/>
-      <c r="O276" s="7"/>
-      <c r="P276" s="7"/>
-      <c r="Q276" s="7"/>
-      <c r="R276" s="9"/>
-      <c r="S276" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="T276" s="7"/>
-      <c r="U276" s="7"/>
-      <c r="V276" s="7"/>
-      <c r="W276" s="7"/>
-      <c r="X276" s="7"/>
-      <c r="Y276" s="7"/>
-      <c r="Z276" s="7"/>
-      <c r="AA276" s="7"/>
-      <c r="AB276" s="7"/>
-      <c r="AC276" s="7"/>
-      <c r="AD276" s="7"/>
-      <c r="AE276" s="7"/>
-      <c r="AF276" s="9"/>
-      <c r="AG276" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="AH276" s="7"/>
-      <c r="AI276" s="7"/>
-      <c r="AJ276" s="9"/>
-      <c r="AK276" s="8"/>
-      <c r="AL276" s="7"/>
-      <c r="AM276" s="7"/>
-      <c r="AN276" s="7"/>
-      <c r="AO276" s="7"/>
-      <c r="AP276" s="9"/>
+        <v>466</v>
+      </c>
+      <c r="C276" s="13"/>
+      <c r="D276" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E276" s="13"/>
+      <c r="F276" s="13"/>
+      <c r="G276" s="15"/>
+      <c r="H276" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I276" s="17"/>
+      <c r="J276" s="17"/>
+      <c r="K276" s="17"/>
+      <c r="L276" s="17"/>
+      <c r="M276" s="17"/>
+      <c r="N276" s="17"/>
+      <c r="O276" s="17"/>
+      <c r="P276" s="17"/>
+      <c r="Q276" s="17"/>
+      <c r="R276" s="18"/>
+      <c r="S276" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="T276" s="17"/>
+      <c r="U276" s="17"/>
+      <c r="V276" s="17"/>
+      <c r="W276" s="17"/>
+      <c r="X276" s="17"/>
+      <c r="Y276" s="17"/>
+      <c r="Z276" s="17"/>
+      <c r="AA276" s="17"/>
+      <c r="AB276" s="17"/>
+      <c r="AC276" s="17"/>
+      <c r="AD276" s="17"/>
+      <c r="AE276" s="17"/>
+      <c r="AF276" s="18"/>
+      <c r="AG276" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH276" s="17"/>
+      <c r="AI276" s="17"/>
+      <c r="AJ276" s="18"/>
+      <c r="AK276" s="16"/>
+      <c r="AL276" s="17"/>
+      <c r="AM276" s="17"/>
+      <c r="AN276" s="17"/>
+      <c r="AO276" s="17"/>
+      <c r="AP276" s="18"/>
     </row>
     <row r="277" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B277" s="8"/>
-      <c r="C277" s="9"/>
+      <c r="B277" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C277" s="15"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
       <c r="G277" s="9"/>
-      <c r="H277" s="7"/>
+      <c r="H277" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
       <c r="K277" s="7"/>
@@ -17057,7 +17086,7 @@
       <c r="Q277" s="7"/>
       <c r="R277" s="9"/>
       <c r="S277" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="T277" s="7"/>
       <c r="U277" s="7"/>
@@ -17071,8 +17100,10 @@
       <c r="AC277" s="7"/>
       <c r="AD277" s="7"/>
       <c r="AE277" s="7"/>
-      <c r="AF277" s="7"/>
-      <c r="AG277" s="10"/>
+      <c r="AF277" s="9"/>
+      <c r="AG277" s="14" t="s">
+        <v>457</v>
+      </c>
       <c r="AH277" s="7"/>
       <c r="AI277" s="7"/>
       <c r="AJ277" s="9"/>
@@ -17084,100 +17115,145 @@
       <c r="AP277" s="9"/>
     </row>
     <row r="278" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B278" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="C278" s="15"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="9"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
-      <c r="G278" s="7"/>
-      <c r="H278" s="14" t="s">
+      <c r="G278" s="9"/>
+      <c r="H278" s="7"/>
+      <c r="I278" s="7"/>
+      <c r="J278" s="7"/>
+      <c r="K278" s="7"/>
+      <c r="L278" s="7"/>
+      <c r="M278" s="7"/>
+      <c r="N278" s="7"/>
+      <c r="O278" s="7"/>
+      <c r="P278" s="7"/>
+      <c r="Q278" s="7"/>
+      <c r="R278" s="9"/>
+      <c r="S278" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="T278" s="7"/>
+      <c r="U278" s="7"/>
+      <c r="V278" s="7"/>
+      <c r="W278" s="7"/>
+      <c r="X278" s="7"/>
+      <c r="Y278" s="7"/>
+      <c r="Z278" s="7"/>
+      <c r="AA278" s="7"/>
+      <c r="AB278" s="7"/>
+      <c r="AC278" s="7"/>
+      <c r="AD278" s="7"/>
+      <c r="AE278" s="7"/>
+      <c r="AF278" s="7"/>
+      <c r="AG278" s="10"/>
+      <c r="AH278" s="7"/>
+      <c r="AI278" s="7"/>
+      <c r="AJ278" s="9"/>
+      <c r="AK278" s="8"/>
+      <c r="AL278" s="7"/>
+      <c r="AM278" s="7"/>
+      <c r="AN278" s="7"/>
+      <c r="AO278" s="7"/>
+      <c r="AP278" s="9"/>
+    </row>
+    <row r="279" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B279" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="C279" s="15"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="G279" s="7"/>
+      <c r="H279" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="I279" s="13"/>
+      <c r="J279" s="13"/>
+      <c r="K279" s="13"/>
+      <c r="L279" s="13"/>
+      <c r="M279" s="13"/>
+      <c r="N279" s="13"/>
+      <c r="O279" s="13"/>
+      <c r="P279" s="13"/>
+      <c r="Q279" s="13"/>
+      <c r="R279" s="13"/>
+      <c r="S279" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="I278" s="13"/>
-      <c r="J278" s="13"/>
-      <c r="K278" s="13"/>
-      <c r="L278" s="13"/>
-      <c r="M278" s="13"/>
-      <c r="N278" s="13"/>
-      <c r="O278" s="13"/>
-      <c r="P278" s="13"/>
-      <c r="Q278" s="13"/>
-      <c r="R278" s="13"/>
-      <c r="S278" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="T278" s="13"/>
-      <c r="U278" s="13"/>
-      <c r="V278" s="13"/>
-      <c r="W278" s="13"/>
-      <c r="X278" s="13"/>
-      <c r="Y278" s="13"/>
-      <c r="Z278" s="13"/>
-      <c r="AA278" s="13"/>
-      <c r="AB278" s="13"/>
-      <c r="AC278" s="13"/>
-      <c r="AD278" s="13"/>
-      <c r="AE278" s="13"/>
-      <c r="AF278" s="15"/>
-      <c r="AG278" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="AH278" s="13"/>
-      <c r="AI278" s="13"/>
-      <c r="AJ278" s="13"/>
-      <c r="AK278" s="14"/>
-      <c r="AL278" s="13"/>
-      <c r="AM278" s="13"/>
-      <c r="AN278" s="13"/>
-      <c r="AO278" s="13"/>
-      <c r="AP278" s="15"/>
-    </row>
-    <row r="279" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B279" s="10"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="11"/>
-      <c r="E279" s="11"/>
-      <c r="F279" s="11"/>
-      <c r="G279" s="12"/>
-      <c r="H279" s="10"/>
-      <c r="I279" s="11"/>
-      <c r="J279" s="11"/>
-      <c r="K279" s="11"/>
-      <c r="L279" s="11"/>
-      <c r="M279" s="11"/>
-      <c r="N279" s="11"/>
-      <c r="O279" s="11"/>
-      <c r="P279" s="11"/>
-      <c r="Q279" s="11"/>
-      <c r="R279" s="12"/>
-      <c r="S279" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="T279" s="11"/>
-      <c r="U279" s="11"/>
-      <c r="V279" s="11"/>
-      <c r="W279" s="11"/>
-      <c r="X279" s="11"/>
-      <c r="Y279" s="11"/>
-      <c r="Z279" s="11"/>
-      <c r="AA279" s="11"/>
-      <c r="AB279" s="11"/>
-      <c r="AC279" s="11"/>
-      <c r="AD279" s="11"/>
-      <c r="AE279" s="11"/>
-      <c r="AF279" s="11"/>
-      <c r="AG279" s="10"/>
-      <c r="AH279" s="11"/>
-      <c r="AI279" s="11"/>
-      <c r="AJ279" s="11"/>
-      <c r="AK279" s="10"/>
-      <c r="AL279" s="11"/>
-      <c r="AM279" s="11"/>
-      <c r="AN279" s="11"/>
-      <c r="AO279" s="11"/>
-      <c r="AP279" s="12"/>
+      <c r="T279" s="13"/>
+      <c r="U279" s="13"/>
+      <c r="V279" s="13"/>
+      <c r="W279" s="13"/>
+      <c r="X279" s="13"/>
+      <c r="Y279" s="13"/>
+      <c r="Z279" s="13"/>
+      <c r="AA279" s="13"/>
+      <c r="AB279" s="13"/>
+      <c r="AC279" s="13"/>
+      <c r="AD279" s="13"/>
+      <c r="AE279" s="13"/>
+      <c r="AF279" s="15"/>
+      <c r="AG279" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH279" s="13"/>
+      <c r="AI279" s="13"/>
+      <c r="AJ279" s="13"/>
+      <c r="AK279" s="14"/>
+      <c r="AL279" s="13"/>
+      <c r="AM279" s="13"/>
+      <c r="AN279" s="13"/>
+      <c r="AO279" s="13"/>
+      <c r="AP279" s="15"/>
+    </row>
+    <row r="280" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B280" s="10"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="12"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="11"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="11"/>
+      <c r="Q280" s="11"/>
+      <c r="R280" s="12"/>
+      <c r="S280" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="T280" s="11"/>
+      <c r="U280" s="11"/>
+      <c r="V280" s="11"/>
+      <c r="W280" s="11"/>
+      <c r="X280" s="11"/>
+      <c r="Y280" s="11"/>
+      <c r="Z280" s="11"/>
+      <c r="AA280" s="11"/>
+      <c r="AB280" s="11"/>
+      <c r="AC280" s="11"/>
+      <c r="AD280" s="11"/>
+      <c r="AE280" s="11"/>
+      <c r="AF280" s="11"/>
+      <c r="AG280" s="10"/>
+      <c r="AH280" s="11"/>
+      <c r="AI280" s="11"/>
+      <c r="AJ280" s="11"/>
+      <c r="AK280" s="10"/>
+      <c r="AL280" s="11"/>
+      <c r="AM280" s="11"/>
+      <c r="AN280" s="11"/>
+      <c r="AO280" s="11"/>
+      <c r="AP280" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
